--- a/MidtermB/MidtermB_3003.xlsx
+++ b/MidtermB/MidtermB_3003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyide/Desktop/STAT3003/MidtermB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D187F05-C5B8-D44B-8098-A0A216135055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A7030-0F80-8546-8962-CDF2A4DBC8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="25780" windowHeight="15820" activeTab="4" xr2:uid="{6CCAF748-0151-C74D-BA21-638B6F6C0265}"/>
   </bookViews>
@@ -5707,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC227D2-100C-0C43-9AF8-AD492A4A1270}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
